--- a/biology/Zoologie/Creatonotos/Creatonotos.xlsx
+++ b/biology/Zoologie/Creatonotos/Creatonotos.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Creatonotos est un genre de papillons tigres de la famille des Erebidae. Les papillons du genre se trouvent dans les régions afrotropicales, en Asie du Sud et de l'Est, dans le Sundaland et en Australie.
 </t>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Palpi court et porrect possédant des aigrettes sur ses tibias postérieurs. Les ailes antérieures sont plutôt étroites[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Palpi court et porrect possédant des aigrettes sur ses tibias postérieurs. Les ailes antérieures sont plutôt étroites.
 </t>
         </is>
       </c>
@@ -542,11 +556,48 @@
           <t>Espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Le genre contient les espèces suivantes :
-Creatonotos sensu stricto
-Creatonotos gangis (Linnaeus, 1763)
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre contient les espèces suivantes :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Creatonotos</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Creatonotos</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Espèces</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Creatonotos sensu stricto</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Creatonotos gangis (Linnaeus, 1763)
 Creatonotos interrupta (Linnaeus, 1767)
 Creatonotos leucanioides Hollande, 1893
 Creatonotos leucanioides albidior Wiltshire, 1986
@@ -554,9 +605,43 @@
 Creatonotos fasciatus (Candèze, 1927)
 Cretonotos fasciatus pljustshi Doubatolov , 2010
 Creatonotos perineti Rothschild, 1933
-Creatonotos puntivitta (Walker, 1855)
-Sous-genre Phissama
-Creatonotos kishidai Dubatolov &amp; Holloway, 2007
+Creatonotos puntivitta (Walker, 1855)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Creatonotos</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Creatonotos</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Espèces</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Sous-genre Phissama</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Creatonotos kishidai Dubatolov &amp; Holloway, 2007
 Creatonotos transiens (Walker, 1855)
 Creatonotos transiens albina (Daniel, 1971)
 Creatonotos transiens koni Miyake, 1909
